--- a/StockInfo/tse_analysis_result_20251127.xlsx
+++ b/StockInfo/tse_analysis_result_20251127.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251127" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -603,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-27 買超 TOP 50】</t>
+          <t>【2025-11-27 買超 TOP 100】</t>
         </is>
       </c>
       <c r="B1" s="16" t="n"/>
@@ -2652,516 +2652,572 @@
       <c r="J53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n"/>
-      <c r="B54" s="4" t="n"/>
-      <c r="C54" s="4" t="n"/>
-      <c r="D54" s="4" t="n"/>
-      <c r="E54" s="4" t="n"/>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="4" t="n"/>
-      <c r="J54" s="4" t="n"/>
+      <c r="A54" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">京元電子        </t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>222.00</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>+10.0</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>2157</v>
+      </c>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n"/>
-      <c r="B55" s="4" t="n"/>
-      <c r="C55" s="4" t="n"/>
-      <c r="D55" s="4" t="n"/>
-      <c r="E55" s="4" t="n"/>
-      <c r="F55" s="4" t="n"/>
-      <c r="G55" s="4" t="n"/>
-      <c r="H55" s="4" t="n"/>
-      <c r="I55" s="4" t="n"/>
-      <c r="J55" s="4" t="n"/>
+      <c r="A55" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">國喬            </t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>+0.3</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>2069</v>
+      </c>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>【2025-11-27 賣超 TOP 20】</t>
-        </is>
-      </c>
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-      <c r="E56" s="16" t="n"/>
-      <c r="F56" s="16" t="n"/>
-      <c r="G56" s="16" t="n"/>
-      <c r="H56" s="16" t="n"/>
-      <c r="I56" s="16" t="n"/>
-      <c r="J56" s="17" t="n"/>
+      <c r="A56" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>2845</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">遠東銀          </t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="H56" s="4" t="inlineStr"/>
+      <c r="I56" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="n"/>
-      <c r="C57" s="4" t="n"/>
-      <c r="D57" s="4" t="n"/>
-      <c r="E57" s="4" t="n"/>
-      <c r="F57" s="4" t="n"/>
-      <c r="G57" s="4" t="n"/>
-      <c r="H57" s="4" t="n"/>
-      <c r="I57" s="4" t="n"/>
-      <c r="J57" s="4" t="n"/>
+      <c r="A57" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>造紙工業</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">榮成            </t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>+0.35</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>證券代號</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>證券領域</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>證券名稱</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>收盤價</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>漲跌價差</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>買賣超張數</t>
-        </is>
-      </c>
-      <c r="H58" s="9" t="inlineStr">
-        <is>
-          <t>新進榜</t>
-        </is>
-      </c>
-      <c r="I58" s="10" t="inlineStr">
-        <is>
-          <t>值得觀察</t>
-        </is>
-      </c>
-      <c r="J58" s="11" t="inlineStr">
-        <is>
-          <t>統計數據(60天)</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>00713</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>元大台灣高息低波</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>1867</v>
+      </c>
+      <c r="H58" s="4" t="inlineStr"/>
+      <c r="I58" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>金融保險業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">第一金          </t>
+          <t xml:space="preserve">廣達            </t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>281.50</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>+2.0</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>-17983</v>
+        <v>1802</v>
       </c>
       <c r="H59" s="4" t="inlineStr"/>
       <c r="I59" s="12" t="inlineStr">
         <is>
-          <t>👀異常波動(4.2σ)</t>
-        </is>
-      </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>均:-997 標差:4000</t>
-        </is>
-      </c>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>00632R</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">元大台灣50反1   </t>
+          <t xml:space="preserve">藥華藥          </t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>523.00</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>+19.0</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>-14142</v>
+        <v>1744</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I60" s="4" t="inlineStr"/>
       <c r="J60" s="4" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>8422</t>
+          <t>9945</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>其他業</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">可寧衛*         </t>
+          <t xml:space="preserve">潤泰新          </t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>30.30</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>+0.05</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>-11501</v>
-      </c>
-      <c r="H61" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
+        <v>1731</v>
+      </c>
+      <c r="H61" s="4" t="inlineStr"/>
       <c r="I61" s="12" t="inlineStr">
         <is>
-          <t>👀異常波動(3.1σ)</t>
-        </is>
-      </c>
-      <c r="J61" s="4" t="inlineStr">
-        <is>
-          <t>均:-566 標差:3489</t>
-        </is>
-      </c>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">強茂            </t>
+          <t xml:space="preserve">東和鋼鐵        </t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>+0.5</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>-7747</v>
+        <v>1731</v>
       </c>
       <c r="H62" s="4" t="inlineStr"/>
       <c r="I62" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">漢翔            </t>
+          <t xml:space="preserve">愛普*           </t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>52.90</t>
+          <t>416.50</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>+19.5</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>-7422</v>
+        <v>1633</v>
       </c>
       <c r="H63" s="4" t="inlineStr"/>
-      <c r="I63" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I63" s="4" t="inlineStr"/>
       <c r="J63" s="4" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>5608</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">鴻海            </t>
+          <t xml:space="preserve">四維航          </t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>231.00</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>+4.0</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>-7242</v>
+        <v>1612</v>
       </c>
       <c r="H64" s="4" t="inlineStr"/>
       <c r="I64" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>9933</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他業</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">宏碁            </t>
+          <t xml:space="preserve">中鼎            </t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>33.60</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>+0.05</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>-6782</v>
+        <v>1554</v>
       </c>
       <c r="H65" s="4" t="inlineStr"/>
       <c r="I65" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>00900</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">萬海            </t>
+          <t>富邦特選高股息30</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>81.40</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>+0.07</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>-5853</v>
+        <v>1476</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I66" s="4" t="inlineStr"/>
       <c r="J66" s="4" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">長榮航          </t>
+          <t xml:space="preserve">台聚            </t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>+0.3</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>-5701</v>
-      </c>
-      <c r="H67" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I67" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+        <v>1409</v>
+      </c>
+      <c r="H67" s="4" t="inlineStr"/>
+      <c r="I67" s="4" t="inlineStr"/>
       <c r="J67" s="4" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>金融保險業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">上海商銀        </t>
+          <t xml:space="preserve">聯發科          </t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>39.40</t>
+          <t>1,340.00</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>+0.05</t>
+          <t>+40.0</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>-5207</v>
+        <v>1324</v>
       </c>
       <c r="H68" s="4" t="inlineStr"/>
       <c r="I68" s="4" t="inlineStr"/>
@@ -3169,1078 +3225,4066 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">精成科          </t>
+          <t xml:space="preserve">兆赫            </t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>128.50</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>+1.0</t>
+          <t>+1.95</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
-        <v>-5188</v>
-      </c>
-      <c r="H69" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I69" s="4" t="inlineStr"/>
+        <v>1317</v>
+      </c>
+      <c r="H69" s="4" t="inlineStr"/>
+      <c r="I69" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J69" s="4" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">陽明            </t>
+          <t xml:space="preserve">智邦            </t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>52.10</t>
+          <t>1,030.00</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>+31.0</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>-4758</v>
-      </c>
-      <c r="H70" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I70" s="4" t="inlineStr"/>
+        <v>1313</v>
+      </c>
+      <c r="H70" s="4" t="inlineStr"/>
+      <c r="I70" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J70" s="4" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">裕民            </t>
+          <t xml:space="preserve">美時            </t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>60.40</t>
+          <t>317.50</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>+2.0</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>-4520</v>
-      </c>
-      <c r="H71" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I71" s="4" t="inlineStr"/>
+        <v>1297</v>
+      </c>
+      <c r="H71" s="4" t="inlineStr"/>
+      <c r="I71" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J71" s="4" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">正新            </t>
+          <t xml:space="preserve">百達-KY         </t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>+2.2</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>-4144</v>
-      </c>
-      <c r="H72" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I72" s="4" t="inlineStr"/>
-      <c r="J72" s="4" t="inlineStr"/>
+        <v>1281</v>
+      </c>
+      <c r="H72" s="4" t="inlineStr"/>
+      <c r="I72" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(10.2σ)+連續買超</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>均:12 標差:124</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>金融保險業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">合庫金          </t>
+          <t xml:space="preserve">晶彩科          </t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>77.70</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>+3.7</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
-        <v>-3580</v>
+        <v>1241</v>
       </c>
       <c r="H73" s="4" t="inlineStr"/>
-      <c r="I73" s="4" t="inlineStr"/>
+      <c r="I73" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J73" s="4" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">事欣科          </t>
+          <t xml:space="preserve">旺宏            </t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>47.40</t>
+          <t>33.70</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>+0.85</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>-3522</v>
-      </c>
-      <c r="H74" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I74" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(3.6σ)+連續賣超</t>
-        </is>
-      </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>均:57 標差:1007</t>
-        </is>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="H74" s="4" t="inlineStr"/>
+      <c r="I74" s="4" t="inlineStr"/>
+      <c r="J74" s="4" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>8131</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">福懋科          </t>
+          <t xml:space="preserve">明泰            </t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>40.95</t>
+          <t>30.20</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>+2.7</t>
+          <t>+1.15</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>-3483</v>
-      </c>
-      <c r="H75" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I75" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(4.0σ)</t>
-        </is>
-      </c>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>均:88 標差:883</t>
-        </is>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="H75" s="4" t="inlineStr"/>
+      <c r="I75" s="4" t="inlineStr"/>
+      <c r="J75" s="4" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>00953B</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>群益優選非投等債</t>
+          <t xml:space="preserve">亞聚            </t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>+0.01</t>
+          <t>+0.55</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>-3338</v>
+        <v>1176</v>
       </c>
       <c r="H76" s="4" t="inlineStr"/>
       <c r="I76" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J76" s="4" t="inlineStr"/>
+          <t>👀異常波動(2.6σ)</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>均:-31 標差:463</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">仁寶            </t>
+          <t xml:space="preserve">長榮航太        </t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>29.60</t>
+          <t>153.50</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
-        <v>-3250</v>
+        <v>1151</v>
       </c>
       <c r="H77" s="4" t="inlineStr"/>
-      <c r="I77" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I77" s="4" t="inlineStr"/>
       <c r="J77" s="4" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>00631L</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">華東            </t>
+          <t xml:space="preserve">元大台灣50正2   </t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>35.80</t>
+          <t>331.75</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>+3.25</t>
+          <t>+6.25</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
-        <v>-3220</v>
-      </c>
-      <c r="H78" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I78" s="4" t="inlineStr"/>
+        <v>1117</v>
+      </c>
+      <c r="H78" s="4" t="inlineStr"/>
+      <c r="I78" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J78" s="4" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="n"/>
-      <c r="B79" s="4" t="n"/>
-      <c r="C79" s="4" t="n"/>
-      <c r="D79" s="4" t="n"/>
-      <c r="E79" s="4" t="n"/>
-      <c r="F79" s="4" t="n"/>
-      <c r="G79" s="4" t="n"/>
-      <c r="H79" s="4" t="n"/>
-      <c r="I79" s="4" t="n"/>
-      <c r="J79" s="4" t="n"/>
+      <c r="A79" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">榮科            </t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>+1.8</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H79" s="4" t="inlineStr"/>
+      <c r="I79" s="4" t="inlineStr"/>
+      <c r="J79" s="4" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="n"/>
-      <c r="B80" s="4" t="n"/>
-      <c r="C80" s="4" t="n"/>
-      <c r="D80" s="4" t="n"/>
-      <c r="E80" s="4" t="n"/>
-      <c r="F80" s="4" t="n"/>
-      <c r="G80" s="4" t="n"/>
-      <c r="H80" s="4" t="n"/>
-      <c r="I80" s="4" t="n"/>
-      <c r="J80" s="4" t="n"/>
+      <c r="A80" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>6213</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">聯茂            </t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>109.50</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>+1.5</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H80" s="4" t="inlineStr"/>
+      <c r="I80" s="4" t="inlineStr"/>
+      <c r="J80" s="4" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="15" t="inlineStr">
-        <is>
-          <t>【2025-11-27 ETF買超 TOP 10】</t>
-        </is>
-      </c>
-      <c r="B81" s="16" t="n"/>
-      <c r="C81" s="16" t="n"/>
-      <c r="D81" s="16" t="n"/>
-      <c r="E81" s="16" t="n"/>
-      <c r="F81" s="16" t="n"/>
-      <c r="G81" s="16" t="n"/>
-      <c r="H81" s="16" t="n"/>
-      <c r="I81" s="16" t="n"/>
-      <c r="J81" s="17" t="n"/>
+      <c r="A81" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">統一證          </t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>+0.25</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H81" s="4" t="inlineStr"/>
+      <c r="I81" s="4" t="inlineStr"/>
+      <c r="J81" s="4" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="n"/>
-      <c r="B82" s="4" t="n"/>
-      <c r="C82" s="4" t="n"/>
-      <c r="D82" s="4" t="n"/>
-      <c r="E82" s="4" t="n"/>
-      <c r="F82" s="4" t="n"/>
-      <c r="G82" s="4" t="n"/>
-      <c r="H82" s="4" t="n"/>
-      <c r="I82" s="4" t="n"/>
-      <c r="J82" s="4" t="n"/>
+      <c r="A82" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>貿易百貨業</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">統一超          </t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>239.00</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>+3.0</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>958</v>
+      </c>
+      <c r="H82" s="4" t="inlineStr"/>
+      <c r="I82" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.6σ)+連續買超</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>均:-179 標差:433</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B83" s="11" t="inlineStr">
-        <is>
-          <t>證券代號</t>
-        </is>
-      </c>
-      <c r="C83" s="11" t="inlineStr">
-        <is>
-          <t>證券名稱</t>
-        </is>
-      </c>
-      <c r="D83" s="11" t="inlineStr">
-        <is>
-          <t>收盤價</t>
-        </is>
-      </c>
-      <c r="E83" s="11" t="inlineStr">
-        <is>
-          <t>漲跌價差</t>
-        </is>
-      </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>買賣超張數</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n"/>
-      <c r="H83" s="4" t="n"/>
-      <c r="I83" s="4" t="n"/>
-      <c r="J83" s="4" t="n"/>
+      <c r="A83" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">華城            </t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>729.00</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>+34.0</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>947</v>
+      </c>
+      <c r="H83" s="4" t="inlineStr"/>
+      <c r="I83" s="4" t="inlineStr"/>
+      <c r="J83" s="4" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>00712</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">復華富時不動產  </t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t xml:space="preserve">裕隆            </t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>+0.08</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="n">
-        <v>29062</v>
-      </c>
-      <c r="G84" s="4" t="n"/>
-      <c r="H84" s="4" t="n"/>
-      <c r="I84" s="4" t="n"/>
-      <c r="J84" s="4" t="n"/>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>+0.4</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>899</v>
+      </c>
+      <c r="H84" s="4" t="inlineStr"/>
+      <c r="I84" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>00919</t>
+          <t>006208</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>群益台灣精選高息</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t xml:space="preserve">富邦台50        </t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>+0.13</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="n">
-        <v>22381</v>
-      </c>
-      <c r="G85" s="4" t="n"/>
-      <c r="H85" s="4" t="n"/>
-      <c r="I85" s="4" t="n"/>
-      <c r="J85" s="4" t="n"/>
+          <t>141.70</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>+1.1</t>
+        </is>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>892</v>
+      </c>
+      <c r="H85" s="4" t="inlineStr"/>
+      <c r="I85" s="4" t="inlineStr"/>
+      <c r="J85" s="4" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>00878</t>
+          <t>2467</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">國泰永續高股息  </t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t xml:space="preserve">志聖            </t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>+0.17</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="n">
-        <v>20967</v>
-      </c>
-      <c r="G86" s="4" t="n"/>
-      <c r="H86" s="4" t="n"/>
-      <c r="I86" s="4" t="n"/>
-      <c r="J86" s="4" t="n"/>
+          <t>197.50</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>+4.0</t>
+        </is>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>870</v>
+      </c>
+      <c r="H86" s="4" t="inlineStr"/>
+      <c r="I86" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>0056</t>
+          <t>9955</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">元大高股息      </t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t xml:space="preserve">佳龍            </t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>+0.44</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="n">
-        <v>17902</v>
-      </c>
-      <c r="G87" s="4" t="n"/>
-      <c r="H87" s="4" t="n"/>
-      <c r="I87" s="4" t="n"/>
-      <c r="J87" s="4" t="n"/>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>+0.6</t>
+        </is>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>870</v>
+      </c>
+      <c r="H87" s="4" t="inlineStr"/>
+      <c r="I87" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.6σ)+連續買超</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>均:12 標差:331</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>00881</t>
+          <t>2427</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>國泰台灣科技龍頭</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>31.04</t>
+          <t xml:space="preserve">三商電          </t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>+0.32</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="n">
-        <v>14769</v>
-      </c>
-      <c r="G88" s="4" t="n"/>
-      <c r="H88" s="4" t="n"/>
-      <c r="I88" s="4" t="n"/>
-      <c r="J88" s="4" t="n"/>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="n">
+        <v>866</v>
+      </c>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>9921</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">元大台灣50      </t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>61.90</t>
+          <t xml:space="preserve">巨大            </t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>+0.55</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="n">
-        <v>10159</v>
-      </c>
-      <c r="G89" s="4" t="n"/>
-      <c r="H89" s="4" t="n"/>
-      <c r="I89" s="4" t="n"/>
-      <c r="J89" s="4" t="n"/>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>+0.5</t>
+        </is>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>853</v>
+      </c>
+      <c r="H89" s="4" t="inlineStr"/>
+      <c r="I89" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J89" s="4" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>00940</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>元大台灣價值高息</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t xml:space="preserve">中航            </t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>+0.05</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="n">
-        <v>9733</v>
-      </c>
-      <c r="G90" s="4" t="n"/>
-      <c r="H90" s="4" t="n"/>
-      <c r="I90" s="4" t="n"/>
-      <c r="J90" s="4" t="n"/>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>+0.6</t>
+        </is>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>840</v>
+      </c>
+      <c r="H90" s="4" t="inlineStr"/>
+      <c r="I90" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J90" s="4" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>00929</t>
+          <t>6209</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>復華台灣科技優息</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t xml:space="preserve">今國光          </t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>+0.13</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="n">
-        <v>6373</v>
-      </c>
-      <c r="G91" s="4" t="n"/>
-      <c r="H91" s="4" t="n"/>
-      <c r="I91" s="4" t="n"/>
-      <c r="J91" s="4" t="n"/>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>+2.4</t>
+        </is>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>827</v>
+      </c>
+      <c r="H91" s="4" t="inlineStr"/>
+      <c r="I91" s="4" t="inlineStr"/>
+      <c r="J91" s="4" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>00882</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">中信中國高股息  </t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t xml:space="preserve">中興電          </t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>+0.05</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="n">
-        <v>4369</v>
-      </c>
-      <c r="G92" s="4" t="n"/>
-      <c r="H92" s="4" t="n"/>
-      <c r="I92" s="4" t="n"/>
-      <c r="J92" s="4" t="n"/>
+          <t>150.50</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>+0.5</t>
+        </is>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>826</v>
+      </c>
+      <c r="H92" s="4" t="inlineStr"/>
+      <c r="I92" s="4" t="inlineStr"/>
+      <c r="J92" s="4" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>00939</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>統一台灣高息動能</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t xml:space="preserve">精英            </t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>+0.45</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>826</v>
+      </c>
+      <c r="H93" s="4" t="inlineStr"/>
+      <c r="I93" s="4" t="inlineStr"/>
+      <c r="J93" s="4" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>造紙工業</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">華紙            </t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>805</v>
+      </c>
+      <c r="H94" s="4" t="inlineStr"/>
+      <c r="I94" s="4" t="inlineStr"/>
+      <c r="J94" s="4" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>2897</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">王道銀行        </t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>+0.02</t>
+        </is>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>804</v>
+      </c>
+      <c r="H95" s="4" t="inlineStr"/>
+      <c r="I95" s="4" t="inlineStr"/>
+      <c r="J95" s="4" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">永豐金          </t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>776</v>
+      </c>
+      <c r="H96" s="4" t="inlineStr"/>
+      <c r="I96" s="4" t="inlineStr"/>
+      <c r="J96" s="4" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>6257</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">矽格            </t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>+2.9</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>772</v>
+      </c>
+      <c r="H97" s="4" t="inlineStr"/>
+      <c r="I97" s="4" t="inlineStr"/>
+      <c r="J97" s="4" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>建材營造業</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中工            </t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
           <t>+0.15</t>
         </is>
       </c>
-      <c r="F93" s="4" t="n">
-        <v>3570</v>
-      </c>
-      <c r="G93" s="4" t="n"/>
-      <c r="H93" s="4" t="n"/>
-      <c r="I93" s="4" t="n"/>
-      <c r="J93" s="4" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n"/>
-      <c r="B94" s="4" t="n"/>
-      <c r="C94" s="4" t="n"/>
-      <c r="D94" s="4" t="n"/>
-      <c r="E94" s="4" t="n"/>
-      <c r="F94" s="4" t="n"/>
-      <c r="G94" s="4" t="n"/>
-      <c r="H94" s="4" t="n"/>
-      <c r="I94" s="4" t="n"/>
-      <c r="J94" s="4" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n"/>
-      <c r="B95" s="4" t="n"/>
-      <c r="C95" s="4" t="n"/>
-      <c r="D95" s="4" t="n"/>
-      <c r="E95" s="4" t="n"/>
-      <c r="F95" s="4" t="n"/>
-      <c r="G95" s="4" t="n"/>
-      <c r="H95" s="4" t="n"/>
-      <c r="I95" s="4" t="n"/>
-      <c r="J95" s="4" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="15" t="inlineStr">
-        <is>
-          <t>【2025-11-27 ETF賣超 TOP 10】</t>
-        </is>
-      </c>
-      <c r="B96" s="16" t="n"/>
-      <c r="C96" s="16" t="n"/>
-      <c r="D96" s="16" t="n"/>
-      <c r="E96" s="16" t="n"/>
-      <c r="F96" s="16" t="n"/>
-      <c r="G96" s="16" t="n"/>
-      <c r="H96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
-      <c r="J96" s="17" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n"/>
-      <c r="B97" s="4" t="n"/>
-      <c r="C97" s="4" t="n"/>
-      <c r="D97" s="4" t="n"/>
-      <c r="E97" s="4" t="n"/>
-      <c r="F97" s="4" t="n"/>
-      <c r="G97" s="4" t="n"/>
-      <c r="H97" s="4" t="n"/>
-      <c r="I97" s="4" t="n"/>
-      <c r="J97" s="4" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B98" s="11" t="inlineStr">
-        <is>
-          <t>證券代號</t>
-        </is>
-      </c>
-      <c r="C98" s="11" t="inlineStr">
-        <is>
-          <t>證券名稱</t>
-        </is>
-      </c>
-      <c r="D98" s="11" t="inlineStr">
-        <is>
-          <t>收盤價</t>
-        </is>
-      </c>
-      <c r="E98" s="11" t="inlineStr">
-        <is>
-          <t>漲跌價差</t>
-        </is>
-      </c>
-      <c r="F98" s="11" t="inlineStr">
-        <is>
-          <t>買賣超張數</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n"/>
-      <c r="H98" s="4" t="n"/>
-      <c r="I98" s="4" t="n"/>
-      <c r="J98" s="4" t="n"/>
+      <c r="G98" s="4" t="n">
+        <v>766</v>
+      </c>
+      <c r="H98" s="4" t="inlineStr"/>
+      <c r="I98" s="4" t="inlineStr"/>
+      <c r="J98" s="4" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>00632R</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">元大台灣50反1   </t>
+          <t>建材營造業</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t xml:space="preserve">興富發          </t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="n">
-        <v>-14142</v>
-      </c>
-      <c r="G99" s="4" t="n"/>
-      <c r="H99" s="4" t="n"/>
-      <c r="I99" s="4" t="n"/>
-      <c r="J99" s="4" t="n"/>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>+0.6</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>764</v>
+      </c>
+      <c r="H99" s="4" t="inlineStr"/>
+      <c r="I99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>00953B</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>群益優選非投等債</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t xml:space="preserve">菱生            </t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>+0.01</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="n">
-        <v>-3338</v>
-      </c>
-      <c r="G100" s="4" t="n"/>
-      <c r="H100" s="4" t="n"/>
-      <c r="I100" s="4" t="n"/>
-      <c r="J100" s="4" t="n"/>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>+0.5</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>763</v>
+      </c>
+      <c r="H100" s="4" t="inlineStr"/>
+      <c r="I100" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J100" s="4" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>00662</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">富邦NASDAQ      </t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>101.75</t>
+          <t xml:space="preserve">堤維西          </t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>+0.55</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="n">
-        <v>-529</v>
-      </c>
-      <c r="G101" s="4" t="n"/>
-      <c r="H101" s="4" t="n"/>
-      <c r="I101" s="4" t="n"/>
-      <c r="J101" s="4" t="n"/>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>+0.7</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>755</v>
+      </c>
+      <c r="H101" s="4" t="inlineStr"/>
+      <c r="I101" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J101" s="4" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>00646</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">元大S&amp;P500      </t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>66.95</t>
+          <t xml:space="preserve">景碩            </t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>+0.25</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="n">
-        <v>-262</v>
-      </c>
-      <c r="G102" s="4" t="n"/>
-      <c r="H102" s="4" t="n"/>
-      <c r="I102" s="4" t="n"/>
-      <c r="J102" s="4" t="n"/>
+          <t>141.00</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>+3.0</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>754</v>
+      </c>
+      <c r="H102" s="4" t="inlineStr"/>
+      <c r="I102" s="4" t="inlineStr"/>
+      <c r="J102" s="4" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">玉山金          </t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t>30.40</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>752</v>
+      </c>
+      <c r="H103" s="4" t="inlineStr"/>
+      <c r="I103" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J103" s="4" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n"/>
+      <c r="B104" s="4" t="n"/>
+      <c r="C104" s="4" t="n"/>
+      <c r="D104" s="4" t="n"/>
+      <c r="E104" s="4" t="n"/>
+      <c r="F104" s="4" t="n"/>
+      <c r="G104" s="4" t="n"/>
+      <c r="H104" s="4" t="n"/>
+      <c r="I104" s="4" t="n"/>
+      <c r="J104" s="4" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+      <c r="B105" s="4" t="n"/>
+      <c r="C105" s="4" t="n"/>
+      <c r="D105" s="4" t="n"/>
+      <c r="E105" s="4" t="n"/>
+      <c r="F105" s="4" t="n"/>
+      <c r="G105" s="4" t="n"/>
+      <c r="H105" s="4" t="n"/>
+      <c r="I105" s="4" t="n"/>
+      <c r="J105" s="4" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>【2025-11-27 賣超 TOP 50】</t>
+        </is>
+      </c>
+      <c r="B106" s="16" t="n"/>
+      <c r="C106" s="16" t="n"/>
+      <c r="D106" s="16" t="n"/>
+      <c r="E106" s="16" t="n"/>
+      <c r="F106" s="16" t="n"/>
+      <c r="G106" s="16" t="n"/>
+      <c r="H106" s="16" t="n"/>
+      <c r="I106" s="16" t="n"/>
+      <c r="J106" s="17" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n"/>
+      <c r="B107" s="4" t="n"/>
+      <c r="C107" s="4" t="n"/>
+      <c r="D107" s="4" t="n"/>
+      <c r="E107" s="4" t="n"/>
+      <c r="F107" s="4" t="n"/>
+      <c r="G107" s="4" t="n"/>
+      <c r="H107" s="4" t="n"/>
+      <c r="I107" s="4" t="n"/>
+      <c r="J107" s="4" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>證券代號</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>證券領域</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>證券名稱</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>漲跌價差</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr">
+        <is>
+          <t>買賣超張數</t>
+        </is>
+      </c>
+      <c r="H108" s="9" t="inlineStr">
+        <is>
+          <t>新進榜</t>
+        </is>
+      </c>
+      <c r="I108" s="10" t="inlineStr">
+        <is>
+          <t>值得觀察</t>
+        </is>
+      </c>
+      <c r="J108" s="11" t="inlineStr">
+        <is>
+          <t>統計數據(60天)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>2892</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">第一金          </t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>-17983</v>
+      </c>
+      <c r="H109" s="4" t="inlineStr"/>
+      <c r="I109" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(4.2σ)</t>
+        </is>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>均:-997 標差:4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>00632R</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元大台灣50反1   </t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>-14142</v>
+      </c>
+      <c r="H110" s="4" t="inlineStr"/>
+      <c r="I110" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>綠能環保</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">可寧衛*         </t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>-11501</v>
+      </c>
+      <c r="H111" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I111" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(3.1σ)</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr">
+        <is>
+          <t>均:-566 標差:3489</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">強茂            </t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>-7747</v>
+      </c>
+      <c r="H112" s="4" t="inlineStr"/>
+      <c r="I112" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B103" s="4" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">漢翔            </t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>-2.5</t>
+        </is>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>-7422</v>
+      </c>
+      <c r="H113" s="4" t="inlineStr"/>
+      <c r="I113" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J113" s="4" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">鴻海            </t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>231.00</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>+4.0</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>-7242</v>
+      </c>
+      <c r="H114" s="4" t="inlineStr"/>
+      <c r="I114" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>2353</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宏碁            </t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>-6782</v>
+      </c>
+      <c r="H115" s="4" t="inlineStr"/>
+      <c r="I115" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">萬海            </t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>-1.3</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>-5853</v>
+      </c>
+      <c r="H116" s="4" t="inlineStr"/>
+      <c r="I116" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">長榮航          </t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>-5701</v>
+      </c>
+      <c r="H117" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I117" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J117" s="4" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>5876</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海商銀        </t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>-5207</v>
+      </c>
+      <c r="H118" s="4" t="inlineStr"/>
+      <c r="I118" s="4" t="inlineStr"/>
+      <c r="J118" s="4" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">精成科          </t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>128.50</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>-5188</v>
+      </c>
+      <c r="H119" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr"/>
+      <c r="J119" s="4" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陽明            </t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>52.10</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>-4758</v>
+      </c>
+      <c r="H120" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr"/>
+      <c r="J120" s="4" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">裕民            </t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>-2.7</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>-4520</v>
+      </c>
+      <c r="H121" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr"/>
+      <c r="J121" s="4" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>橡膠工業</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">正新            </t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>-4144</v>
+      </c>
+      <c r="H122" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr"/>
+      <c r="J122" s="4" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>5880</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合庫金          </t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>-3580</v>
+      </c>
+      <c r="H123" s="4" t="inlineStr"/>
+      <c r="I123" s="4" t="inlineStr"/>
+      <c r="J123" s="4" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">事欣科          </t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>47.40</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>-3.2</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>-3522</v>
+      </c>
+      <c r="H124" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I124" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(3.6σ)+連續賣超</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>均:57 標差:1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福懋科          </t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>+2.7</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>-3483</v>
+      </c>
+      <c r="H125" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I125" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(4.0σ)</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>均:88 標差:883</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>00953B</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>群益優選非投等債</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>+0.01</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>-3338</v>
+      </c>
+      <c r="H126" s="4" t="inlineStr"/>
+      <c r="I126" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">仁寶            </t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="H127" s="4" t="inlineStr"/>
+      <c r="I127" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>8110</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">華東            </t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>35.80</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>+3.25</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="n">
+        <v>-3220</v>
+      </c>
+      <c r="H128" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr"/>
+      <c r="J128" s="4" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">長榮            </t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>180.50</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="n">
+        <v>-3113</v>
+      </c>
+      <c r="H129" s="4" t="inlineStr"/>
+      <c r="I129" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">東元            </t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>+1.4</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="n">
+        <v>-2531</v>
+      </c>
+      <c r="H130" s="4" t="inlineStr"/>
+      <c r="I130" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">友達            </t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>-2397</v>
+      </c>
+      <c r="H131" s="4" t="inlineStr"/>
+      <c r="I131" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>8021</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">尖點            </t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>133.50</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="n">
+        <v>-2221</v>
+      </c>
+      <c r="H132" s="4" t="inlineStr"/>
+      <c r="I132" s="4" t="inlineStr"/>
+      <c r="J132" s="4" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>8150</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南茂            </t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t>43.25</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>+1.1</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="n">
+        <v>-2174</v>
+      </c>
+      <c r="H133" s="4" t="inlineStr"/>
+      <c r="I133" s="4" t="inlineStr"/>
+      <c r="J133" s="4" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">華航            </t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="G134" s="4" t="n">
+        <v>-2033</v>
+      </c>
+      <c r="H134" s="4" t="inlineStr"/>
+      <c r="I134" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">普安            </t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>+2.5</t>
+        </is>
+      </c>
+      <c r="G135" s="4" t="n">
+        <v>-1750</v>
+      </c>
+      <c r="H135" s="4" t="inlineStr"/>
+      <c r="I135" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">定穎投控        </t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>118.00</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="n">
+        <v>-1704</v>
+      </c>
+      <c r="H136" s="4" t="inlineStr"/>
+      <c r="I136" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">金像電          </t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t>627.00</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>+17.0</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="n">
+        <v>-1695</v>
+      </c>
+      <c r="H137" s="4" t="inlineStr"/>
+      <c r="I137" s="4" t="inlineStr"/>
+      <c r="J137" s="4" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中鋼            </t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="G138" s="4" t="n">
+        <v>-1681</v>
+      </c>
+      <c r="H138" s="4" t="inlineStr"/>
+      <c r="I138" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">國泰金          </t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t>65.80</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr"/>
+      <c r="G139" s="4" t="n">
+        <v>-1629</v>
+      </c>
+      <c r="H139" s="4" t="inlineStr"/>
+      <c r="I139" s="4" t="inlineStr"/>
+      <c r="J139" s="4" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">國碩            </t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>+1.15</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>-1581</v>
+      </c>
+      <c r="H140" s="4" t="inlineStr"/>
+      <c r="I140" s="4" t="inlineStr"/>
+      <c r="J140" s="4" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">晶豪科          </t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="n">
+        <v>-1561</v>
+      </c>
+      <c r="H141" s="4" t="inlineStr"/>
+      <c r="I141" s="4" t="inlineStr"/>
+      <c r="J141" s="4" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">全新            </t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t>138.00</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="n">
+        <v>-1440</v>
+      </c>
+      <c r="H142" s="4" t="inlineStr"/>
+      <c r="I142" s="4" t="inlineStr"/>
+      <c r="J142" s="4" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新日興          </t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t>199.50</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>+7.5</t>
+        </is>
+      </c>
+      <c r="G143" s="4" t="n">
+        <v>-1394</v>
+      </c>
+      <c r="H143" s="4" t="inlineStr"/>
+      <c r="I143" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J143" s="4" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台新新光金      </t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="n">
+        <v>-1310</v>
+      </c>
+      <c r="H144" s="4" t="inlineStr"/>
+      <c r="I144" s="4" t="inlineStr"/>
+      <c r="J144" s="4" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>2301</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">光寶科          </t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t>158.00</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="n">
+        <v>-1226</v>
+      </c>
+      <c r="H145" s="4" t="inlineStr"/>
+      <c r="I145" s="4" t="inlineStr"/>
+      <c r="J145" s="4" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">聯合再生        </t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="n">
+        <v>-1152</v>
+      </c>
+      <c r="H146" s="4" t="inlineStr"/>
+      <c r="I146" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J146" s="4" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">和成            </t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="n">
+        <v>-1111</v>
+      </c>
+      <c r="H147" s="4" t="inlineStr"/>
+      <c r="I147" s="4" t="inlineStr"/>
+      <c r="J147" s="4" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台積電          </t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="inlineStr">
+        <is>
+          <t>1,435.00</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="n">
+        <v>-1099</v>
+      </c>
+      <c r="H148" s="4" t="inlineStr"/>
+      <c r="I148" s="4" t="inlineStr"/>
+      <c r="J148" s="4" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>6415</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">矽力*-KY        </t>
+        </is>
+      </c>
+      <c r="E149" s="4" t="inlineStr">
+        <is>
+          <t>197.00</t>
+        </is>
+      </c>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="n">
+        <v>-1079</v>
+      </c>
+      <c r="H149" s="4" t="inlineStr"/>
+      <c r="I149" s="4" t="inlineStr"/>
+      <c r="J149" s="4" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">銘旺科          </t>
+        </is>
+      </c>
+      <c r="E150" s="4" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>+3.7</t>
+        </is>
+      </c>
+      <c r="G150" s="4" t="n">
+        <v>-929</v>
+      </c>
+      <c r="H150" s="4" t="inlineStr"/>
+      <c r="I150" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J150" s="4" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">可成            </t>
+        </is>
+      </c>
+      <c r="E151" s="4" t="inlineStr">
+        <is>
+          <t>201.50</t>
+        </is>
+      </c>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>+2.0</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>-926</v>
+      </c>
+      <c r="H151" s="4" t="inlineStr"/>
+      <c r="I151" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J151" s="4" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>3704</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合勤控          </t>
+        </is>
+      </c>
+      <c r="E152" s="4" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>-918</v>
+      </c>
+      <c r="H152" s="4" t="inlineStr"/>
+      <c r="I152" s="4" t="inlineStr"/>
+      <c r="J152" s="4" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D153" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">帆宣            </t>
+        </is>
+      </c>
+      <c r="E153" s="4" t="inlineStr">
+        <is>
+          <t>231.50</t>
+        </is>
+      </c>
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>-846</v>
+      </c>
+      <c r="H153" s="4" t="inlineStr"/>
+      <c r="I153" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.5σ)</t>
+        </is>
+      </c>
+      <c r="J153" s="4" t="inlineStr">
+        <is>
+          <t>均:-69 標差:311</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佳能            </t>
+        </is>
+      </c>
+      <c r="E154" s="4" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>-840</v>
+      </c>
+      <c r="H154" s="4" t="inlineStr"/>
+      <c r="I154" s="4" t="inlineStr"/>
+      <c r="J154" s="4" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>3044</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">健鼎            </t>
+        </is>
+      </c>
+      <c r="E155" s="4" t="inlineStr">
+        <is>
+          <t>308.50</t>
+        </is>
+      </c>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>-830</v>
+      </c>
+      <c r="H155" s="4" t="inlineStr"/>
+      <c r="I155" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J155" s="4" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">勤誠            </t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="inlineStr">
+        <is>
+          <t>965.00</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>+45.0</t>
+        </is>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>-799</v>
+      </c>
+      <c r="H156" s="4" t="inlineStr"/>
+      <c r="I156" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J156" s="4" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>6505</t>
+        </is>
+      </c>
+      <c r="C157" s="4" t="inlineStr">
+        <is>
+          <t>油電燃氣業</t>
+        </is>
+      </c>
+      <c r="D157" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台塑化          </t>
+        </is>
+      </c>
+      <c r="E157" s="4" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>+1.8</t>
+        </is>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>-786</v>
+      </c>
+      <c r="H157" s="4" t="inlineStr"/>
+      <c r="I157" s="4" t="inlineStr"/>
+      <c r="J157" s="4" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中華電          </t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="inlineStr">
+        <is>
+          <t>131.00</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr"/>
+      <c r="G158" s="4" t="n">
+        <v>-752</v>
+      </c>
+      <c r="H158" s="4" t="inlineStr"/>
+      <c r="I158" s="4" t="inlineStr"/>
+      <c r="J158" s="4" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="n"/>
+      <c r="B159" s="4" t="n"/>
+      <c r="C159" s="4" t="n"/>
+      <c r="D159" s="4" t="n"/>
+      <c r="E159" s="4" t="n"/>
+      <c r="F159" s="4" t="n"/>
+      <c r="G159" s="4" t="n"/>
+      <c r="H159" s="4" t="n"/>
+      <c r="I159" s="4" t="n"/>
+      <c r="J159" s="4" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="n"/>
+      <c r="B160" s="4" t="n"/>
+      <c r="C160" s="4" t="n"/>
+      <c r="D160" s="4" t="n"/>
+      <c r="E160" s="4" t="n"/>
+      <c r="F160" s="4" t="n"/>
+      <c r="G160" s="4" t="n"/>
+      <c r="H160" s="4" t="n"/>
+      <c r="I160" s="4" t="n"/>
+      <c r="J160" s="4" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="15" t="inlineStr">
+        <is>
+          <t>【2025-11-27 ETF買超 TOP 10】</t>
+        </is>
+      </c>
+      <c r="B161" s="16" t="n"/>
+      <c r="C161" s="16" t="n"/>
+      <c r="D161" s="16" t="n"/>
+      <c r="E161" s="16" t="n"/>
+      <c r="F161" s="16" t="n"/>
+      <c r="G161" s="16" t="n"/>
+      <c r="H161" s="16" t="n"/>
+      <c r="I161" s="16" t="n"/>
+      <c r="J161" s="17" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="n"/>
+      <c r="B162" s="4" t="n"/>
+      <c r="C162" s="4" t="n"/>
+      <c r="D162" s="4" t="n"/>
+      <c r="E162" s="4" t="n"/>
+      <c r="F162" s="4" t="n"/>
+      <c r="G162" s="4" t="n"/>
+      <c r="H162" s="4" t="n"/>
+      <c r="I162" s="4" t="n"/>
+      <c r="J162" s="4" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B163" s="11" t="inlineStr">
+        <is>
+          <t>證券代號</t>
+        </is>
+      </c>
+      <c r="C163" s="11" t="inlineStr">
+        <is>
+          <t>證券名稱</t>
+        </is>
+      </c>
+      <c r="D163" s="11" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="E163" s="11" t="inlineStr">
+        <is>
+          <t>漲跌價差</t>
+        </is>
+      </c>
+      <c r="F163" s="11" t="inlineStr">
+        <is>
+          <t>買賣超張數</t>
+        </is>
+      </c>
+      <c r="G163" s="4" t="n"/>
+      <c r="H163" s="4" t="n"/>
+      <c r="I163" s="4" t="n"/>
+      <c r="J163" s="4" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>00712</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">復華富時不動產  </t>
+        </is>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E164" s="4" t="inlineStr">
+        <is>
+          <t>+0.08</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>29062</v>
+      </c>
+      <c r="G164" s="4" t="n"/>
+      <c r="H164" s="4" t="n"/>
+      <c r="I164" s="4" t="n"/>
+      <c r="J164" s="4" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>00919</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>群益台灣精選高息</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E165" s="4" t="inlineStr">
+        <is>
+          <t>+0.13</t>
+        </is>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>22381</v>
+      </c>
+      <c r="G165" s="4" t="n"/>
+      <c r="H165" s="4" t="n"/>
+      <c r="I165" s="4" t="n"/>
+      <c r="J165" s="4" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>00878</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">國泰永續高股息  </t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="E166" s="4" t="inlineStr">
+        <is>
+          <t>+0.17</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>20967</v>
+      </c>
+      <c r="G166" s="4" t="n"/>
+      <c r="H166" s="4" t="n"/>
+      <c r="I166" s="4" t="n"/>
+      <c r="J166" s="4" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元大高股息      </t>
+        </is>
+      </c>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E167" s="4" t="inlineStr">
+        <is>
+          <t>+0.44</t>
+        </is>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>17902</v>
+      </c>
+      <c r="G167" s="4" t="n"/>
+      <c r="H167" s="4" t="n"/>
+      <c r="I167" s="4" t="n"/>
+      <c r="J167" s="4" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>00881</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>國泰台灣科技龍頭</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E168" s="4" t="inlineStr">
+        <is>
+          <t>+0.32</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>14769</v>
+      </c>
+      <c r="G168" s="4" t="n"/>
+      <c r="H168" s="4" t="n"/>
+      <c r="I168" s="4" t="n"/>
+      <c r="J168" s="4" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元大台灣50      </t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="E169" s="4" t="inlineStr">
+        <is>
+          <t>+0.55</t>
+        </is>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>10159</v>
+      </c>
+      <c r="G169" s="4" t="n"/>
+      <c r="H169" s="4" t="n"/>
+      <c r="I169" s="4" t="n"/>
+      <c r="J169" s="4" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>00940</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>元大台灣價值高息</t>
+        </is>
+      </c>
+      <c r="D170" s="4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E170" s="4" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>9733</v>
+      </c>
+      <c r="G170" s="4" t="n"/>
+      <c r="H170" s="4" t="n"/>
+      <c r="I170" s="4" t="n"/>
+      <c r="J170" s="4" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>00929</t>
+        </is>
+      </c>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>復華台灣科技優息</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E171" s="4" t="inlineStr">
+        <is>
+          <t>+0.13</t>
+        </is>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>6373</v>
+      </c>
+      <c r="G171" s="4" t="n"/>
+      <c r="H171" s="4" t="n"/>
+      <c r="I171" s="4" t="n"/>
+      <c r="J171" s="4" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>00882</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中信中國高股息  </t>
+        </is>
+      </c>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E172" s="4" t="inlineStr">
+        <is>
+          <t>+0.05</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>4369</v>
+      </c>
+      <c r="G172" s="4" t="n"/>
+      <c r="H172" s="4" t="n"/>
+      <c r="I172" s="4" t="n"/>
+      <c r="J172" s="4" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>00939</t>
+        </is>
+      </c>
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>統一台灣高息動能</t>
+        </is>
+      </c>
+      <c r="D173" s="4" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E173" s="4" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>3570</v>
+      </c>
+      <c r="G173" s="4" t="n"/>
+      <c r="H173" s="4" t="n"/>
+      <c r="I173" s="4" t="n"/>
+      <c r="J173" s="4" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="n"/>
+      <c r="B174" s="4" t="n"/>
+      <c r="C174" s="4" t="n"/>
+      <c r="D174" s="4" t="n"/>
+      <c r="E174" s="4" t="n"/>
+      <c r="F174" s="4" t="n"/>
+      <c r="G174" s="4" t="n"/>
+      <c r="H174" s="4" t="n"/>
+      <c r="I174" s="4" t="n"/>
+      <c r="J174" s="4" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="n"/>
+      <c r="B175" s="4" t="n"/>
+      <c r="C175" s="4" t="n"/>
+      <c r="D175" s="4" t="n"/>
+      <c r="E175" s="4" t="n"/>
+      <c r="F175" s="4" t="n"/>
+      <c r="G175" s="4" t="n"/>
+      <c r="H175" s="4" t="n"/>
+      <c r="I175" s="4" t="n"/>
+      <c r="J175" s="4" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="15" t="inlineStr">
+        <is>
+          <t>【2025-11-27 ETF賣超 TOP 10】</t>
+        </is>
+      </c>
+      <c r="B176" s="16" t="n"/>
+      <c r="C176" s="16" t="n"/>
+      <c r="D176" s="16" t="n"/>
+      <c r="E176" s="16" t="n"/>
+      <c r="F176" s="16" t="n"/>
+      <c r="G176" s="16" t="n"/>
+      <c r="H176" s="16" t="n"/>
+      <c r="I176" s="16" t="n"/>
+      <c r="J176" s="17" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="n"/>
+      <c r="B177" s="4" t="n"/>
+      <c r="C177" s="4" t="n"/>
+      <c r="D177" s="4" t="n"/>
+      <c r="E177" s="4" t="n"/>
+      <c r="F177" s="4" t="n"/>
+      <c r="G177" s="4" t="n"/>
+      <c r="H177" s="4" t="n"/>
+      <c r="I177" s="4" t="n"/>
+      <c r="J177" s="4" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B178" s="11" t="inlineStr">
+        <is>
+          <t>證券代號</t>
+        </is>
+      </c>
+      <c r="C178" s="11" t="inlineStr">
+        <is>
+          <t>證券名稱</t>
+        </is>
+      </c>
+      <c r="D178" s="11" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="E178" s="11" t="inlineStr">
+        <is>
+          <t>漲跌價差</t>
+        </is>
+      </c>
+      <c r="F178" s="11" t="inlineStr">
+        <is>
+          <t>買賣超張數</t>
+        </is>
+      </c>
+      <c r="G178" s="4" t="n"/>
+      <c r="H178" s="4" t="n"/>
+      <c r="I178" s="4" t="n"/>
+      <c r="J178" s="4" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t>00632R</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元大台灣50反1   </t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E179" s="4" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>-14142</v>
+      </c>
+      <c r="G179" s="4" t="n"/>
+      <c r="H179" s="4" t="n"/>
+      <c r="I179" s="4" t="n"/>
+      <c r="J179" s="4" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>00953B</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>群益優選非投等債</t>
+        </is>
+      </c>
+      <c r="D180" s="4" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E180" s="4" t="inlineStr">
+        <is>
+          <t>+0.01</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>-3338</v>
+      </c>
+      <c r="G180" s="4" t="n"/>
+      <c r="H180" s="4" t="n"/>
+      <c r="I180" s="4" t="n"/>
+      <c r="J180" s="4" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>00662</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">富邦NASDAQ      </t>
+        </is>
+      </c>
+      <c r="D181" s="4" t="inlineStr">
+        <is>
+          <t>101.75</t>
+        </is>
+      </c>
+      <c r="E181" s="4" t="inlineStr">
+        <is>
+          <t>+0.55</t>
+        </is>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>-529</v>
+      </c>
+      <c r="G181" s="4" t="n"/>
+      <c r="H181" s="4" t="n"/>
+      <c r="I181" s="4" t="n"/>
+      <c r="J181" s="4" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" s="4" t="inlineStr">
+        <is>
+          <t>00646</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元大S&amp;P500      </t>
+        </is>
+      </c>
+      <c r="D182" s="4" t="inlineStr">
+        <is>
+          <t>66.95</t>
+        </is>
+      </c>
+      <c r="E182" s="4" t="inlineStr">
+        <is>
+          <t>+0.25</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>-262</v>
+      </c>
+      <c r="G182" s="4" t="n"/>
+      <c r="H182" s="4" t="n"/>
+      <c r="I182" s="4" t="n"/>
+      <c r="J182" s="4" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
         <is>
           <t>00757</t>
         </is>
       </c>
-      <c r="C103" s="4" t="inlineStr">
+      <c r="C183" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">統一FANG+       </t>
         </is>
       </c>
-      <c r="D103" s="4" t="inlineStr">
+      <c r="D183" s="4" t="inlineStr">
         <is>
           <t>122.85</t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
+      <c r="E183" s="4" t="inlineStr">
         <is>
           <t>-0.3</t>
         </is>
       </c>
-      <c r="F103" s="4" t="n">
+      <c r="F183" s="4" t="n">
         <v>-53</v>
       </c>
-      <c r="G103" s="4" t="n"/>
-      <c r="H103" s="4" t="n"/>
-      <c r="I103" s="4" t="n"/>
-      <c r="J103" s="4" t="n"/>
+      <c r="G183" s="4" t="n"/>
+      <c r="H183" s="4" t="n"/>
+      <c r="I183" s="4" t="n"/>
+      <c r="J183" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A161:J161"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A176:J176"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StockInfo/tse_analysis_result_20251127.xlsx
+++ b/StockInfo/tse_analysis_result_20251127.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20251127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
